--- a/data/trans_camb/P2A_lim_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_lim_R-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-4.571242305653678</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8.242452957240886</v>
+        <v>8.242452957240893</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-0.503184872150042</v>
@@ -655,7 +655,7 @@
         <v>-2.106537631654822</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>6.986047112930313</v>
+        <v>6.986047112930316</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-1.549841870973458</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.247789786680408</v>
+        <v>-6.42790756476527</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.840238549117164</v>
+        <v>-8.033927386287559</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.754837140582971</v>
+        <v>3.497426548365293</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.775165806263366</v>
+        <v>-3.674435776253893</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.873566595650872</v>
+        <v>-5.077200440699615</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.301673217910089</v>
+        <v>3.317162280584381</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.831327470488172</v>
+        <v>-3.822916331050917</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-5.500474862671695</v>
+        <v>-5.774445702061433</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>4.620114766228748</v>
+        <v>4.501193576764473</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7855210689112581</v>
+        <v>0.8547497134730884</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.29128337667014</v>
+        <v>-1.431162104251516</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.42229433362209</v>
+        <v>13.38004792615738</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.25466901560541</v>
+        <v>2.515179428299647</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8262305766128105</v>
+        <v>0.6094932353700533</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>10.73727607672822</v>
+        <v>10.64163221097834</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.820093878524898</v>
+        <v>0.7626493254766238</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-1.0780178333635</v>
+        <v>-1.073861842517209</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>10.54446623959698</v>
+        <v>10.35547165634079</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.3345816407932108</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.6032875201526103</v>
+        <v>0.6032875201526108</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.03704674514686616</v>
@@ -760,7 +760,7 @@
         <v>-0.1550928239331661</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5143443718227605</v>
+        <v>0.5143443718227607</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.1138462590879039</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3899889994727538</v>
+        <v>-0.4046869243763439</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4981890994240035</v>
+        <v>-0.4947639614058192</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2448715150901543</v>
+        <v>0.2245913969591004</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.248215794212845</v>
+        <v>-0.2407814745098311</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3170535239025271</v>
+        <v>-0.3352898679799858</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2138263732824016</v>
+        <v>0.2184386163107929</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2538766294213082</v>
+        <v>-0.2559972449302775</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.362642978123196</v>
+        <v>-0.3760258566086984</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3144200120124572</v>
+        <v>0.3050383622703127</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.07631324934744099</v>
+        <v>0.08082764072949315</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.112846301425146</v>
+        <v>-0.1181974702958327</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.163458222285758</v>
+        <v>1.147467172173906</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1927978641802476</v>
+        <v>0.2171599735074133</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.07514698534774115</v>
+        <v>0.05388100520760419</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.882818448171848</v>
+        <v>0.8892257444454962</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06992095377014554</v>
+        <v>0.06501969923616951</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.08604344016426282</v>
+        <v>-0.08836938943859458</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.8643702565217244</v>
+        <v>0.8401163978046976</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-0.5192416809748378</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9.652152289552316</v>
+        <v>9.652152289552319</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>5.915066671504441</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.916562194803896</v>
+        <v>2.146610283066561</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.562496676117677</v>
+        <v>-2.732779939891291</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.744220772933594</v>
+        <v>6.92715681044708</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.758467261082293</v>
+        <v>3.470495630459113</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.1179442397514638</v>
+        <v>-0.3144730387835984</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>8.766020106208423</v>
+        <v>8.844554022198489</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>3.263764982368231</v>
+        <v>3.393050952738408</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.7693072063581667</v>
+        <v>-0.7837683239755298</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>8.378730820626778</v>
+        <v>8.466618823810631</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.105755646895553</v>
+        <v>7.147443627604934</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.67596800605143</v>
+        <v>1.781259584895563</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.57636017677474</v>
+        <v>12.85321153589133</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.561870517281999</v>
+        <v>8.38362059272559</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.5246280367696</v>
+        <v>4.314248173326193</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>13.54708321521789</v>
+        <v>13.58633744782986</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.91024196867718</v>
+        <v>6.951315060342539</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.516420852243812</v>
+        <v>2.464320842219587</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>12.30592548973693</v>
+        <v>12.19451233628162</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.1435363005352087</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>1.715148966251648</v>
+        <v>1.715148966251649</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.2548957241135785</v>
+        <v>0.2764943707949193</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3520352340953773</v>
+        <v>-0.3598422044378297</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.9013010718712914</v>
+        <v>0.9245738833516998</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.5630099621890697</v>
+        <v>0.4751566334883204</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.023310776208764</v>
+        <v>-0.04168014132946846</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.251286340581915</v>
+        <v>1.25243760276284</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4655336636701445</v>
+        <v>0.5001580393377045</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1149636730835265</v>
+        <v>-0.1164965697976913</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1.213532933434081</v>
+        <v>1.200184046276708</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.34029525228864</v>
+        <v>1.338283207196813</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3102416756201684</v>
+        <v>0.3567341119967319</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.340187268344275</v>
+        <v>2.366963546487444</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.937367677064591</v>
+        <v>1.784284681746527</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.979512772379578</v>
+        <v>0.943498874299833</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.90230464625808</v>
+        <v>2.990423846433528</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.274488613471654</v>
+        <v>1.269907519217907</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4618264132218193</v>
+        <v>0.448991856467865</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.343547751462022</v>
+        <v>2.290964193020129</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>0.5133217978379366</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>6.013580285959884</v>
+        <v>6.013580285959886</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>3.473483934845908</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.601872355335523</v>
+        <v>1.643880685638631</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.1424258762726709</v>
+        <v>-0.2479971489672443</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.454197737890914</v>
+        <v>4.392745438891284</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.527840221697421</v>
+        <v>0.5866905689802357</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.757009638626967</v>
+        <v>-1.770349847914274</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.712032095165463</v>
+        <v>3.625446284862836</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.8770389254346</v>
+        <v>1.871773974811011</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.2351320601476919</v>
+        <v>-0.3401220619067037</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.763011770182027</v>
+        <v>4.573745084956014</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.392371636351811</v>
+        <v>5.851556241629674</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.365183888711623</v>
+        <v>4.051914274067343</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.227287945077668</v>
+        <v>8.887301505121357</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.803407317404806</v>
+        <v>5.375507689289859</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.93044516847236</v>
+        <v>2.614724158206081</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.238309723514769</v>
+        <v>8.259827619483962</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.200165880094812</v>
+        <v>5.16601843936891</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.924061475897148</v>
+        <v>2.919960497857276</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>8.006081999263948</v>
+        <v>7.924841415481374</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2907044619495171</v>
+        <v>0.3004084679721699</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.0373287483910967</v>
+        <v>-0.07070412303705856</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.8287447135304351</v>
+        <v>0.8121527764639446</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.07649468930206421</v>
+        <v>0.05986100599577331</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2533262429923024</v>
+        <v>-0.2648855053090439</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5023288382317734</v>
+        <v>0.503742498418822</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3367111315825212</v>
+        <v>0.3244477202981372</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.05647633573320914</v>
+        <v>-0.06467126080803781</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.8073657847974917</v>
+        <v>0.7908888368739321</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.764916949152514</v>
+        <v>1.648082306268166</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.170405840375513</v>
+        <v>1.132788944763639</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.743254259464774</v>
+        <v>2.55992496800157</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.222860024480774</v>
+        <v>1.10127656458876</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.57726334042455</v>
+        <v>0.5537209191566433</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.729008407658342</v>
+        <v>1.683922690718106</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.189932383528294</v>
+        <v>1.143553884012267</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6654708563451057</v>
+        <v>0.6542100394935945</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.806328920070595</v>
+        <v>1.800855587637411</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.825073998788043</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6.222570725470185</v>
+        <v>6.222570725470186</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>5.733091809821899</v>
@@ -1297,7 +1297,7 @@
         <v>0.9413693973984983</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>4.262666887852387</v>
+        <v>4.262666887852391</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>4.339368160321802</v>
@@ -1306,7 +1306,7 @@
         <v>1.531592727938894</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>5.395689065908335</v>
+        <v>5.39568906590833</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.07558050351224792</v>
+        <v>-0.08373388278212786</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.173665152639263</v>
+        <v>-1.010183799592495</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.337768320748933</v>
+        <v>3.586070753731462</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.577740605495341</v>
+        <v>1.2757810675875</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.739134969334013</v>
+        <v>-3.076674424770906</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.01904038708255</v>
+        <v>1.323484272746992</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.748978483829211</v>
+        <v>1.854287238783486</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.9022287164048077</v>
+        <v>-0.8640781026664421</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.514810825598551</v>
+        <v>3.227771949585831</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.309230859537342</v>
+        <v>6.144277138347409</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.707296620103866</v>
+        <v>4.557700946297625</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.903662915171155</v>
+        <v>8.957213374404162</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.23688772758269</v>
+        <v>9.59656684261827</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.32902465268678</v>
+        <v>4.222710880069088</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.190543661975522</v>
+        <v>7.045286791599602</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.91947160152622</v>
+        <v>6.976668254116413</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.852271736994172</v>
+        <v>3.694504807078706</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.275504843289453</v>
+        <v>7.317780527403108</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.1554507805821699</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7039052861816343</v>
+        <v>0.7039052861816347</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.9293191372988941</v>
@@ -1411,7 +1411,7 @@
         <v>0.3280059169987273</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>1.155540835118068</v>
+        <v>1.155540835118067</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.07452099145935831</v>
+        <v>-0.1385548838813553</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2865815252018061</v>
+        <v>-0.2220997681547102</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.5991701243867997</v>
+        <v>0.5884054623049204</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1537914101653334</v>
+        <v>0.1294125622555814</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3268190114205715</v>
+        <v>-0.3751518993213748</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09972538971042073</v>
+        <v>0.1622501323853058</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2978843859757718</v>
+        <v>0.3423986730219011</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1478278814542414</v>
+        <v>-0.1718649457134745</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.5481142748731541</v>
+        <v>0.501254489932479</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.868802962571675</v>
+        <v>2.414700510731695</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.911310619516901</v>
+        <v>1.86153232036405</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.996834696975828</v>
+        <v>3.906446003430969</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.448689523769613</v>
+        <v>2.329747286598298</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.08336978317426</v>
+        <v>0.9754679950384386</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.807159425919373</v>
+        <v>1.81244450152547</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.847808273684918</v>
+        <v>2.06899840296474</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.064486799283881</v>
+        <v>1.008457590421558</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.096691183344165</v>
+        <v>2.077650960202107</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>0.5678372702556223</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>6.734392247976481</v>
+        <v>6.734392247976484</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.600124405117339</v>
+        <v>1.341779202349513</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.912229269130564</v>
+        <v>-0.9260554589064468</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5.363133137127955</v>
+        <v>5.508829011580034</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.048869042474789</v>
+        <v>2.0561441277833</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.7241308040230058</v>
+        <v>-0.6084310880043652</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>5.004026695713152</v>
+        <v>5.100453696627915</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.14646281243563</v>
+        <v>2.13646529461579</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.4644017795795007</v>
+        <v>-0.3794471949958122</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>5.750505261195396</v>
+        <v>5.771067958130843</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.338072708735755</v>
+        <v>4.273469268147274</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.640445425404611</v>
+        <v>1.531107220891319</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8.466123131010718</v>
+        <v>8.53199794372024</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.053059151068322</v>
+        <v>5.072195772526421</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.007706914662615</v>
+        <v>2.163836822874953</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.912431340769157</v>
+        <v>7.906339342367476</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.206381266967471</v>
+        <v>4.192164325007303</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.432182440400217</v>
+        <v>1.470818063717886</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>7.702463738772732</v>
+        <v>7.761954505916164</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.07756747857169394</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.9199287432350878</v>
+        <v>0.9199287432350882</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2192076649748715</v>
+        <v>0.1734405818856547</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1240302220976077</v>
+        <v>-0.1313366699285527</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.7459252694884619</v>
+        <v>0.7446499692441605</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2356276325172201</v>
+        <v>0.2284761529292848</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.08606515996228452</v>
+        <v>-0.07159728523248021</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.56693224306205</v>
+        <v>0.5733133529018598</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2718852416863083</v>
+        <v>0.269267240523301</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.05956677062907049</v>
+        <v>-0.05026821700816506</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.7343184601201097</v>
+        <v>0.7412022097298546</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7228636828544409</v>
+        <v>0.6967265408855565</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2686332276885468</v>
+        <v>0.2490349069441671</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.421710027239679</v>
+        <v>1.390233718257941</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.6849494168797218</v>
+        <v>0.681069687577522</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2733368541580699</v>
+        <v>0.2978594663177905</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.082883748865449</v>
+        <v>1.090803869132609</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6062922765255911</v>
+        <v>0.6013753824581056</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2044922701517949</v>
+        <v>0.2177572573213376</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.13045598281042</v>
+        <v>1.138301955009848</v>
       </c>
     </row>
     <row r="34">
